--- a/biology/Médecine/Clairance_rénale/Clairance_rénale.xlsx
+++ b/biology/Médecine/Clairance_rénale/Clairance_rénale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clairance_r%C3%A9nale</t>
+          <t>Clairance_rénale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">[réf. nécessaire]
 La clairance rénale est une mesure physiologique évaluant l'excrétion d'une ou plusieurs substances filtrées, réabsorbées voire excrétées par le rein. Elle se définit comme étant le volume de plasma virtuel épuré par unité de temps par le rein rapporté a une surface corporelle (usuellement 1,73 m2 chez l'être humain). La clairance est la capacité d'un tissu, organe ou organisme à éliminer une substance donnée d'un liquide biologique (le sang, la lymphe, etc.). Au niveau rénal, la clairance est le reflet de la fonction d'épuration du système urinaire. 
